--- a/tests/calculations/data/isotherms/Takeda 5A N2 phys.xlsx
+++ b/tests/calculations/data/isotherms/Takeda 5A N2 phys.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="4BE5C8BD7DC0394995E0C8E6E48AAD6B70205245" xr6:coauthVersionLast="23" xr6:coauthVersionMax="23" xr10:uidLastSave="{805C3DAD-896D-41E7-BBFC-FD31220E265A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15510" windowHeight="8235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15510" windowHeight="8235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parser" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>(en °C)</t>
   </si>
@@ -85,55 +86,10 @@
     <t>Nom du projet</t>
   </si>
   <si>
-    <t>Constante d'Henry</t>
-  </si>
-  <si>
-    <t>Langmuir N1</t>
-  </si>
-  <si>
-    <t>Langmuir N2</t>
-  </si>
-  <si>
-    <t>Langmuir N3</t>
-  </si>
-  <si>
-    <t>Langmuir B1</t>
-  </si>
-  <si>
-    <t>Langmuir B2</t>
-  </si>
-  <si>
-    <t>Langmuir B3</t>
-  </si>
-  <si>
-    <t>Langmuir R2</t>
-  </si>
-  <si>
     <t>Nom du labo</t>
   </si>
   <si>
     <t>MADIREL</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>C_m</t>
   </si>
   <si>
     <t>Test</t>
@@ -154,7 +110,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -222,7 +178,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -238,9 +194,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -584,11 +537,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D161"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,7 +552,7 @@
     <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -607,7 +560,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -618,7 +571,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -627,26 +580,26 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -657,18 +610,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -679,37 +632,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -718,1163 +671,1083 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="7"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="5"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
         <v>1.9399999999999999E-7</v>
       </c>
+      <c r="B15">
+        <v>0.51028099999999998</v>
+      </c>
+      <c r="M15" s="8"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>4.63E-7</v>
+      </c>
+      <c r="B16">
+        <v>1.0225599999999999</v>
+      </c>
+      <c r="M16" s="8"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>1.0899999999999999E-6</v>
+      </c>
+      <c r="B17">
+        <v>1.54166</v>
+      </c>
+      <c r="M17" s="8"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>2.43E-6</v>
+      </c>
+      <c r="B18">
+        <v>2.0597500000000002</v>
+      </c>
+      <c r="M18" s="8"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>5.0799999999999996E-6</v>
+      </c>
+      <c r="B19">
+        <v>2.5800299999999998</v>
+      </c>
+      <c r="M19" s="8"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>9.6199999999999994E-6</v>
+      </c>
+      <c r="B20">
+        <v>3.0916700000000001</v>
+      </c>
+      <c r="M20" s="8"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>1.7E-5</v>
+      </c>
+      <c r="B21">
+        <v>3.60649</v>
+      </c>
+      <c r="M21" s="8"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>2.9E-5</v>
+      </c>
+      <c r="B22">
+        <v>4.1202500000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>4.74E-5</v>
+      </c>
+      <c r="B23">
+        <v>4.6332500000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>7.5500000000000006E-5</v>
+      </c>
+      <c r="B24">
+        <v>5.1427800000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>1.2E-4</v>
+      </c>
+      <c r="B25">
+        <v>5.6521499999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>1.95E-4</v>
+      </c>
+      <c r="B26">
+        <v>6.1573799999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>3.2579000000000001E-4</v>
+      </c>
+      <c r="B27">
+        <v>6.6631900000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>5.6214199999999996E-4</v>
+      </c>
+      <c r="B28">
+        <v>7.1527399999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>9.9128400000000005E-4</v>
+      </c>
+      <c r="B29">
+        <v>7.6205699999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1.7200399999999999E-3</v>
+      </c>
+      <c r="B30">
+        <v>8.0520499999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2.8579999999999999E-3</v>
+      </c>
       <c r="B31">
-        <v>0.51028099999999998</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="9">
-        <v>4.63E-7</v>
+        <v>8.4427500000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>4.4328199999999996E-3</v>
       </c>
       <c r="B32">
-        <v>1.0225599999999999</v>
+        <v>8.7895599999999998</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="9">
-        <v>1.0899999999999999E-6</v>
+      <c r="A33">
+        <v>6.3800200000000001E-3</v>
       </c>
       <c r="B33">
-        <v>1.54166</v>
+        <v>9.0888200000000001</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="9">
-        <v>2.43E-6</v>
+      <c r="A34">
+        <v>8.3801499999999994E-3</v>
       </c>
       <c r="B34">
-        <v>2.0597500000000002</v>
+        <v>9.3242200000000004</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="9">
-        <v>5.0799999999999996E-6</v>
+      <c r="A35">
+        <v>1.09257E-2</v>
       </c>
       <c r="B35">
-        <v>2.5800299999999998</v>
+        <v>9.5693000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="9">
-        <v>9.6199999999999994E-6</v>
+      <c r="A36">
+        <v>1.3602400000000001E-2</v>
       </c>
       <c r="B36">
-        <v>3.0916700000000001</v>
+        <v>9.7949800000000007</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="9">
-        <v>1.7E-5</v>
+      <c r="A37">
+        <v>1.66029E-2</v>
       </c>
       <c r="B37">
-        <v>3.60649</v>
+        <v>9.9954999999999998</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="9">
-        <v>2.9E-5</v>
+      <c r="A38">
+        <v>1.9802299999999998E-2</v>
       </c>
       <c r="B38">
-        <v>4.1202500000000004</v>
+        <v>10.1831</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="9">
-        <v>4.74E-5</v>
+      <c r="A39">
+        <v>2.3107599999999999E-2</v>
       </c>
       <c r="B39">
-        <v>4.6332500000000003</v>
+        <v>10.355700000000001</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="9">
-        <v>7.5500000000000006E-5</v>
+      <c r="A40">
+        <v>2.65706E-2</v>
       </c>
       <c r="B40">
-        <v>5.1427800000000001</v>
+        <v>10.5129</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="9">
-        <v>1.2E-4</v>
+      <c r="A41">
+        <v>3.0123400000000002E-2</v>
       </c>
       <c r="B41">
-        <v>5.6521499999999998</v>
+        <v>10.6629</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="9">
-        <v>1.95E-4</v>
+      <c r="A42">
+        <v>3.3778200000000001E-2</v>
       </c>
       <c r="B42">
-        <v>6.1573799999999999</v>
+        <v>10.8033</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>3.2579000000000001E-4</v>
+        <v>3.7487800000000002E-2</v>
       </c>
       <c r="B43">
-        <v>6.6631900000000002</v>
+        <v>10.9343</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>5.6214199999999996E-4</v>
+        <v>4.1312799999999997E-2</v>
       </c>
       <c r="B44">
-        <v>7.1527399999999997</v>
+        <v>11.06</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>9.9128400000000005E-4</v>
+        <v>4.5180999999999999E-2</v>
       </c>
       <c r="B45">
-        <v>7.6205699999999998</v>
+        <v>11.180099999999999</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>1.7200399999999999E-3</v>
+        <v>4.91896E-2</v>
       </c>
       <c r="B46">
-        <v>8.0520499999999995</v>
+        <v>11.2928</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>2.8579999999999999E-3</v>
+        <v>5.3244E-2</v>
       </c>
       <c r="B47">
-        <v>8.4427500000000002</v>
+        <v>11.401300000000001</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>4.4328199999999996E-3</v>
+        <v>5.7377499999999998E-2</v>
       </c>
       <c r="B48">
-        <v>8.7895599999999998</v>
+        <v>11.502800000000001</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>6.3800200000000001E-3</v>
+        <v>6.1508500000000001E-2</v>
       </c>
       <c r="B49">
-        <v>9.0888200000000001</v>
+        <v>11.5983</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>8.3801499999999994E-3</v>
+        <v>6.6813899999999996E-2</v>
       </c>
       <c r="B50">
-        <v>9.3242200000000004</v>
+        <v>11.710699999999999</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>1.09257E-2</v>
+        <v>7.1097800000000003E-2</v>
       </c>
       <c r="B51">
-        <v>9.5693000000000001</v>
+        <v>11.7963</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>1.3602400000000001E-2</v>
+        <v>7.5381199999999995E-2</v>
       </c>
       <c r="B52">
-        <v>9.7949800000000007</v>
+        <v>11.8788</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>1.66029E-2</v>
+        <v>7.9744800000000005E-2</v>
       </c>
       <c r="B53">
-        <v>9.9954999999999998</v>
+        <v>11.957700000000001</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>1.9802299999999998E-2</v>
+        <v>8.4142800000000004E-2</v>
       </c>
       <c r="B54">
-        <v>10.1831</v>
+        <v>12.0313</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>2.3107599999999999E-2</v>
+        <v>8.8639300000000004E-2</v>
       </c>
       <c r="B55">
-        <v>10.355700000000001</v>
+        <v>12.100199999999999</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>2.65706E-2</v>
+        <v>9.2855300000000002E-2</v>
       </c>
       <c r="B56">
-        <v>10.5129</v>
+        <v>12.161300000000001</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>3.0123400000000002E-2</v>
+        <v>9.73831E-2</v>
       </c>
       <c r="B57">
-        <v>10.6629</v>
+        <v>12.224600000000001</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>3.3778200000000001E-2</v>
+        <v>0.102077</v>
       </c>
       <c r="B58">
-        <v>10.8033</v>
+        <v>12.2852</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>3.7487800000000002E-2</v>
+        <v>0.106652</v>
       </c>
       <c r="B59">
-        <v>10.9343</v>
+        <v>12.3437</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>4.1312799999999997E-2</v>
+        <v>0.111302</v>
       </c>
       <c r="B60">
-        <v>11.06</v>
+        <v>12.4002</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>4.5180999999999999E-2</v>
+        <v>0.11596099999999999</v>
       </c>
       <c r="B61">
-        <v>11.180099999999999</v>
+        <v>12.4529</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>4.91896E-2</v>
+        <v>0.120575</v>
       </c>
       <c r="B62">
-        <v>11.2928</v>
+        <v>12.502700000000001</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>5.3244E-2</v>
+        <v>0.12515499999999999</v>
       </c>
       <c r="B63">
-        <v>11.401300000000001</v>
+        <v>12.547499999999999</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>5.7377499999999998E-2</v>
+        <v>0.12993099999999999</v>
       </c>
       <c r="B64">
-        <v>11.502800000000001</v>
+        <v>12.594900000000001</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>6.1508500000000001E-2</v>
+        <v>0.134605</v>
       </c>
       <c r="B65">
-        <v>11.5983</v>
+        <v>12.6388</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>6.6813899999999996E-2</v>
+        <v>0.13927500000000001</v>
       </c>
       <c r="B66">
-        <v>11.710699999999999</v>
+        <v>12.680999999999999</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>7.1097800000000003E-2</v>
+        <v>0.144094</v>
       </c>
       <c r="B67">
-        <v>11.7963</v>
+        <v>12.722300000000001</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>7.5381199999999995E-2</v>
+        <v>0.148759</v>
       </c>
       <c r="B68">
-        <v>11.8788</v>
+        <v>12.7607</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>7.9744800000000005E-2</v>
+        <v>0.153586</v>
       </c>
       <c r="B69">
-        <v>11.957700000000001</v>
+        <v>12.799200000000001</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>8.4142800000000004E-2</v>
+        <v>0.158473</v>
       </c>
       <c r="B70">
-        <v>12.0313</v>
+        <v>12.836</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>8.8639300000000004E-2</v>
+        <v>0.163243</v>
       </c>
       <c r="B71">
-        <v>12.100199999999999</v>
+        <v>12.8696</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>9.2855300000000002E-2</v>
+        <v>0.16812299999999999</v>
       </c>
       <c r="B72">
-        <v>12.161300000000001</v>
+        <v>12.9049</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>9.73831E-2</v>
+        <v>0.172985</v>
       </c>
       <c r="B73">
-        <v>12.224600000000001</v>
+        <v>12.9384</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>0.102077</v>
+        <v>0.177842</v>
       </c>
       <c r="B74">
-        <v>12.2852</v>
+        <v>12.9696</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>0.106652</v>
+        <v>0.18276999999999999</v>
       </c>
       <c r="B75">
-        <v>12.3437</v>
+        <v>13.0023</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>0.111302</v>
+        <v>0.18776999999999999</v>
       </c>
       <c r="B76">
-        <v>12.4002</v>
+        <v>13.0334</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>0.11596099999999999</v>
+        <v>0.192603</v>
       </c>
       <c r="B77">
-        <v>12.4529</v>
+        <v>13.062900000000001</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>0.120575</v>
+        <v>0.19754099999999999</v>
       </c>
       <c r="B78">
-        <v>12.502700000000001</v>
+        <v>13.091900000000001</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>0.12515499999999999</v>
+        <v>0.21940299999999999</v>
       </c>
       <c r="B79">
-        <v>12.547499999999999</v>
+        <v>13.2158</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>0.12993099999999999</v>
+        <v>0.248555</v>
       </c>
       <c r="B80">
-        <v>12.594900000000001</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+        <v>13.3651</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>0.134605</v>
+        <v>0.27292300000000003</v>
       </c>
       <c r="B81">
-        <v>12.6388</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+        <v>13.4841</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>0.13927500000000001</v>
+        <v>0.29946899999999999</v>
       </c>
       <c r="B82">
-        <v>12.680999999999999</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+        <v>13.6067</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>0.144094</v>
+        <v>0.32389800000000002</v>
       </c>
       <c r="B83">
-        <v>12.722300000000001</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+        <v>13.7151</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>0.148759</v>
+        <v>0.348022</v>
       </c>
       <c r="B84">
-        <v>12.7607</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+        <v>13.8216</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>0.153586</v>
+        <v>0.37271599999999999</v>
       </c>
       <c r="B85">
-        <v>12.799200000000001</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+        <v>13.926299999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>0.158473</v>
+        <v>0.39872600000000002</v>
       </c>
       <c r="B86">
-        <v>12.836</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14.0421</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>0.163243</v>
+        <v>0.42256300000000002</v>
       </c>
       <c r="B87">
-        <v>12.8696</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14.143000000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>0.16812299999999999</v>
+        <v>0.446685</v>
       </c>
       <c r="B88">
-        <v>12.9049</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14.2464</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>0.172985</v>
+        <v>0.47397499999999998</v>
       </c>
       <c r="B89">
-        <v>12.9384</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14.360200000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>0.177842</v>
+        <v>0.49660900000000002</v>
       </c>
       <c r="B90">
-        <v>12.9696</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14.4518</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>0.18276999999999999</v>
+        <v>0.52399399999999996</v>
       </c>
       <c r="B91">
-        <v>13.0023</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14.5627</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>0.18776999999999999</v>
+        <v>0.54922000000000004</v>
       </c>
       <c r="B92">
-        <v>13.0334</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14.6608</v>
+      </c>
+      <c r="M92" s="8"/>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>0.192603</v>
+        <v>0.57387500000000002</v>
       </c>
       <c r="B93">
-        <v>13.062900000000001</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14.755800000000001</v>
+      </c>
+      <c r="M93" s="8"/>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>0.19754099999999999</v>
+        <v>0.597943</v>
       </c>
       <c r="B94">
-        <v>13.091900000000001</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14.8492</v>
+      </c>
+      <c r="M94" s="8"/>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>0.21940299999999999</v>
+        <v>0.62398699999999996</v>
       </c>
       <c r="B95">
-        <v>13.2158</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14.950699999999999</v>
+      </c>
+      <c r="M95" s="8"/>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>0.248555</v>
+        <v>0.64693199999999995</v>
       </c>
       <c r="B96">
-        <v>13.3651</v>
-      </c>
+        <v>15.041</v>
+      </c>
+      <c r="M96" s="8"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>0.27292300000000003</v>
+        <v>0.67394500000000002</v>
       </c>
       <c r="B97">
-        <v>13.4841</v>
+        <v>15.15</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>0.29946899999999999</v>
+        <v>0.69898899999999997</v>
       </c>
       <c r="B98">
-        <v>13.6067</v>
+        <v>15.254899999999999</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>0.32389800000000002</v>
+        <v>0.72422299999999995</v>
       </c>
       <c r="B99">
-        <v>13.7151</v>
+        <v>15.3607</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>0.348022</v>
+        <v>0.74895199999999995</v>
       </c>
       <c r="B100">
-        <v>13.8216</v>
+        <v>15.472099999999999</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>0.37271599999999999</v>
+        <v>0.77393999999999996</v>
       </c>
       <c r="B101">
-        <v>13.926299999999999</v>
+        <v>15.585800000000001</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>0.39872600000000002</v>
+        <v>0.79896800000000001</v>
       </c>
       <c r="B102">
-        <v>14.0421</v>
+        <v>15.7056</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>0.42256300000000002</v>
+        <v>0.82418000000000002</v>
       </c>
       <c r="B103">
-        <v>14.143000000000001</v>
+        <v>15.837899999999999</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>0.446685</v>
+        <v>0.84908799999999995</v>
       </c>
       <c r="B104">
-        <v>14.2464</v>
+        <v>15.979900000000001</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>0.47397499999999998</v>
+        <v>0.87392800000000004</v>
       </c>
       <c r="B105">
-        <v>14.360200000000001</v>
+        <v>16.1418</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>0.49660900000000002</v>
+        <v>0.89886299999999997</v>
       </c>
       <c r="B106">
-        <v>14.4518</v>
+        <v>16.3459</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>0.52399399999999996</v>
+        <v>0.92378199999999999</v>
       </c>
       <c r="B107">
-        <v>14.5627</v>
+        <v>16.643999999999998</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>0.54922000000000004</v>
+        <v>0.94785299999999995</v>
       </c>
       <c r="B108">
-        <v>14.6608</v>
+        <v>17.156099999999999</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>0.57387500000000002</v>
+        <v>0.96882699999999999</v>
       </c>
       <c r="B109">
-        <v>14.755800000000001</v>
+        <v>18.2209</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>0.597943</v>
+        <v>0.98689499999999997</v>
       </c>
       <c r="B110">
-        <v>14.8492</v>
+        <v>21.586500000000001</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>0.62398699999999996</v>
+        <v>0.96986899999999998</v>
       </c>
       <c r="B111">
-        <v>14.950699999999999</v>
+        <v>19.427600000000002</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>0.64693199999999995</v>
+        <v>0.94444799999999995</v>
       </c>
       <c r="B112">
-        <v>15.041</v>
+        <v>17.427399999999999</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>0.67394500000000002</v>
+        <v>0.90606500000000001</v>
       </c>
       <c r="B113">
-        <v>15.15</v>
+        <v>16.529599999999999</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>0.69898899999999997</v>
+        <v>0.87496700000000005</v>
       </c>
       <c r="B114">
-        <v>15.254899999999999</v>
+        <v>16.215800000000002</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>0.72422299999999995</v>
+        <v>0.849186</v>
       </c>
       <c r="B115">
-        <v>15.3607</v>
+        <v>16.034400000000002</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>0.74895199999999995</v>
+        <v>0.82149099999999997</v>
       </c>
       <c r="B116">
-        <v>15.472099999999999</v>
+        <v>15.8695</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>0.77393999999999996</v>
+        <v>0.77604200000000001</v>
       </c>
       <c r="B117">
-        <v>15.585800000000001</v>
+        <v>15.637</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>0.79896800000000001</v>
+        <v>0.74960599999999999</v>
       </c>
       <c r="B118">
-        <v>15.7056</v>
+        <v>15.5158</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>0.82418000000000002</v>
+        <v>0.72319999999999995</v>
       </c>
       <c r="B119">
-        <v>15.837899999999999</v>
+        <v>15.397</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>0.84908799999999995</v>
+        <v>0.69846200000000003</v>
       </c>
       <c r="B120">
-        <v>15.979900000000001</v>
+        <v>15.2912</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>0.87392800000000004</v>
+        <v>0.67342299999999999</v>
       </c>
       <c r="B121">
-        <v>16.1418</v>
+        <v>15.1899</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>0.89886299999999997</v>
+        <v>0.64893599999999996</v>
       </c>
       <c r="B122">
-        <v>16.3459</v>
+        <v>15.0924</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>0.92378199999999999</v>
+        <v>0.62446699999999999</v>
       </c>
       <c r="B123">
-        <v>16.643999999999998</v>
+        <v>14.997999999999999</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>0.94785299999999995</v>
+        <v>0.600217</v>
       </c>
       <c r="B124">
-        <v>17.156099999999999</v>
+        <v>14.9039</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>0.96882699999999999</v>
+        <v>0.57310399999999995</v>
       </c>
       <c r="B125">
-        <v>18.2209</v>
+        <v>14.797800000000001</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>0.98689499999999997</v>
+        <v>0.54918699999999998</v>
       </c>
       <c r="B126">
-        <v>21.586500000000001</v>
+        <v>14.7014</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>0.96986899999999998</v>
+        <v>0.52337999999999996</v>
       </c>
       <c r="B127">
-        <v>19.427600000000002</v>
+        <v>14.5952</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>0.94444799999999995</v>
+        <v>0.49874400000000002</v>
       </c>
       <c r="B128">
-        <v>17.427399999999999</v>
+        <v>14.494</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>0.90606500000000001</v>
+        <v>0.47433500000000001</v>
       </c>
       <c r="B129">
-        <v>16.529599999999999</v>
+        <v>14.384499999999999</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>0.87496700000000005</v>
+        <v>0.448909</v>
       </c>
       <c r="B130">
-        <v>16.215800000000002</v>
+        <v>14.275600000000001</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>0.849186</v>
+        <v>0.42413899999999999</v>
       </c>
       <c r="B131">
-        <v>16.034400000000002</v>
+        <v>14.167400000000001</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>0.82149099999999997</v>
+        <v>0.39941300000000002</v>
       </c>
       <c r="B132">
-        <v>15.8695</v>
+        <v>14.062799999999999</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>0.77604200000000001</v>
+        <v>0.375143</v>
       </c>
       <c r="B133">
-        <v>15.637</v>
+        <v>13.9567</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>0.74960599999999999</v>
+        <v>0.34968500000000002</v>
       </c>
       <c r="B134">
-        <v>15.5158</v>
+        <v>13.8483</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>0.72319999999999995</v>
+        <v>0.32526300000000002</v>
       </c>
       <c r="B135">
-        <v>15.397</v>
+        <v>13.7393</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>0.69846200000000003</v>
+        <v>0.29993799999999998</v>
       </c>
       <c r="B136">
-        <v>15.2912</v>
+        <v>13.624499999999999</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>0.67342299999999999</v>
+        <v>0.27504499999999998</v>
       </c>
       <c r="B137">
-        <v>15.1899</v>
+        <v>13.5068</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>0.64893599999999996</v>
+        <v>0.25076700000000002</v>
       </c>
       <c r="B138">
-        <v>15.0924</v>
+        <v>13.3864</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>0.62446699999999999</v>
+        <v>0.22597900000000001</v>
       </c>
       <c r="B139">
-        <v>14.997999999999999</v>
+        <v>13.259499999999999</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>0.600217</v>
+        <v>0.201178</v>
       </c>
       <c r="B140">
-        <v>14.9039</v>
+        <v>13.1205</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>0.57310399999999995</v>
+        <v>0.17676600000000001</v>
       </c>
       <c r="B141">
-        <v>14.797800000000001</v>
+        <v>12.9696</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>0.54918699999999998</v>
+        <v>0.15214900000000001</v>
       </c>
       <c r="B142">
-        <v>14.7014</v>
+        <v>12.7927</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>0.52337999999999996</v>
+        <v>0.12801199999999999</v>
       </c>
       <c r="B143">
-        <v>14.5952</v>
+        <v>12.582000000000001</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>0.49874400000000002</v>
+        <v>0.10586</v>
       </c>
       <c r="B144">
-        <v>14.494</v>
+        <v>12.3371</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>0.47433500000000001</v>
+        <v>9.1023300000000001E-2</v>
       </c>
       <c r="B145">
-        <v>14.384499999999999</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146">
-        <v>0.448909</v>
-      </c>
-      <c r="B146">
-        <v>14.275600000000001</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147">
-        <v>0.42413899999999999</v>
-      </c>
-      <c r="B147">
-        <v>14.167400000000001</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148">
-        <v>0.39941300000000002</v>
-      </c>
-      <c r="B148">
-        <v>14.062799999999999</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149">
-        <v>0.375143</v>
-      </c>
-      <c r="B149">
-        <v>13.9567</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150">
-        <v>0.34968500000000002</v>
-      </c>
-      <c r="B150">
-        <v>13.8483</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151">
-        <v>0.32526300000000002</v>
-      </c>
-      <c r="B151">
-        <v>13.7393</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152">
-        <v>0.29993799999999998</v>
-      </c>
-      <c r="B152">
-        <v>13.624499999999999</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153">
-        <v>0.27504499999999998</v>
-      </c>
-      <c r="B153">
-        <v>13.5068</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154">
-        <v>0.25076700000000002</v>
-      </c>
-      <c r="B154">
-        <v>13.3864</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155">
-        <v>0.22597900000000001</v>
-      </c>
-      <c r="B155">
-        <v>13.259499999999999</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156">
-        <v>0.201178</v>
-      </c>
-      <c r="B156">
-        <v>13.1205</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157">
-        <v>0.17676600000000001</v>
-      </c>
-      <c r="B157">
-        <v>12.9696</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158">
-        <v>0.15214900000000001</v>
-      </c>
-      <c r="B158">
-        <v>12.7927</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159">
-        <v>0.12801199999999999</v>
-      </c>
-      <c r="B159">
-        <v>12.582000000000001</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>0.10586</v>
-      </c>
-      <c r="B160">
-        <v>12.3371</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161">
-        <v>9.1023300000000001E-2</v>
-      </c>
-      <c r="B161">
         <v>12.138199999999999</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="M16:N54">
+    <sortCondition ref="M54"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>